--- a/cyber_web/excels/blog_feed.xlsx
+++ b/cyber_web/excels/blog_feed.xlsx
@@ -458,220 +458,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06/14/2022</t>
+          <t>07/12/2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How To Remove Your Personal Information From Google’s Search Results</t>
+          <t>DeFi and Cybersecurity: What Future Holds?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/how-to-remove-your-personal-information-from-googles-search-results-f6093b47812a?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/defi-and-cybersecurity-what-future-holds-fc55f7fb336a?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*x2QMOap5oh3OgkeW</t>
+          <t>https://cdn-images-1.medium.com/max/1024/0*hGD_bD9GBWq7vcLO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03/11/2022</t>
+          <t>07/05/2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minimum Viable Secure Product (MVSP): A vendor-neutral security baseline</t>
+          <t>Disable Ad Tracking in iOS and Android — Reasons to do it now</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/minimum-viable-secure-product-mvsp-a-vendor-neutral-security-baseline-fd79525f1ced?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/disable-ad-tracking-in-ios-and-android-reasons-to-do-it-now-50afca9272bf?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/780/0*5c5YOITGtOJwazTr</t>
+          <t>https://cdn-images-1.medium.com/max/1024/0*I9kx72nvtwe36fSj</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/29/2022</t>
+          <t>06/14/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proof of Work (PoW) vs Proof of Stake (PoS)</t>
+          <t>How To Remove Your Personal Information From Google’s Search Results</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://blog.cryptostars.is/proof-of-work-pow-vs-proof-of-stake-pos-3c0f2cb92502?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/how-to-remove-your-personal-information-from-googles-search-results-f6093b47812a?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*DowFJSrSyWmXm3pn</t>
+          <t>https://cdn-images-1.medium.com/max/1024/0*x2QMOap5oh3OgkeW</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/18/2022</t>
+          <t>03/11/2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Protect the APIs Using Leading Open-source Tools</t>
+          <t>Minimum Viable Secure Product (MVSP): A vendor-neutral security baseline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/protect-the-apis-using-leading-open-source-tools-cd0754efbdf?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/minimum-viable-secure-product-mvsp-a-vendor-neutral-security-baseline-fd79525f1ced?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*RHW-uTZb4Y8Kuy0x</t>
+          <t>https://cdn-images-1.medium.com/max/780/0*5c5YOITGtOJwazTr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/14/2022</t>
+          <t>01/29/2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bug Alert —Critical Vulnerability Alerting System</t>
+          <t>Proof of Work (PoW) vs Proof of Stake (PoS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/bug-alert-critical-vulnerability-alerting-system-7ce9d94c578?source=rss-25a06010c94f------2</t>
+          <t>https://blog.cryptostars.is/proof-of-work-pow-vs-proof-of-stake-pos-3c0f2cb92502?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/987/1*hQ1iRpbi_61zuB-EyZynOQ.png</t>
+          <t>https://cdn-images-1.medium.com/max/1024/0*DowFJSrSyWmXm3pn</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/18/2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Log4j — Searchable Software Repository</t>
+          <t>Protect the APIs Using Leading Open-source Tools</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/log4j-searchable-software-repository-125a1269dcea?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/protect-the-apis-using-leading-open-source-tools-cd0754efbdf?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/945/1*bjsA9Y2JMFWtSC7G6HYH4w.png</t>
+          <t>https://cdn-images-1.medium.com/max/1024/0*RHW-uTZb4Y8Kuy0x</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/14/2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Top 5 API Testing Methods to Secure Your Data</t>
+          <t>Bug Alert —Critical Vulnerability Alerting System</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/top-5-api-testing-methods-to-secure-your-data-5206c6c6f335?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/bug-alert-critical-vulnerability-alerting-system-7ce9d94c578?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*gt_EEhKve2CGUEeN</t>
+          <t>https://cdn-images-1.medium.com/max/987/1*hQ1iRpbi_61zuB-EyZynOQ.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12/30/2021</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DuckDuckGo’s Email Protection Using @duck.com</t>
+          <t>Log4j — Searchable Software Repository</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/duckduckgos-email-protection-using-duck-com-63da9b45ecc9?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/log4j-searchable-software-repository-125a1269dcea?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*8yYmkmUX587UL9jr.gif</t>
+          <t>https://cdn-images-1.medium.com/max/945/1*bjsA9Y2JMFWtSC7G6HYH4w.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12/16/2021</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ChainJacking — New Type of Supply Chain Attack</t>
+          <t>Top 5 API Testing Methods to Secure Your Data</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://medium.com/dark-sky-technology/chainjacking-new-type-of-supply-chain-attack-e088b296868c?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/top-5-api-testing-methods-to-secure-your-data-5206c6c6f335?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*GvZlbVC0y9cJoZir.png</t>
+          <t>https://cdn-images-1.medium.com/max/1024/0*gt_EEhKve2CGUEeN</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12/03/2021</t>
+          <t>12/30/2021</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mobile Device Cybersecurity Checklist for Consumers</t>
+          <t>DuckDuckGo’s Email Protection Using @duck.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://vinothu.medium.com/mobile-device-cybersecurity-checklist-for-consumers-6c19ac51df85?source=rss-25a06010c94f------2</t>
+          <t>https://vinothu.medium.com/duckduckgos-email-protection-using-duck-com-63da9b45ecc9?source=rss-25a06010c94f------2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*UzkS7Eg-0dLqnHjX</t>
+          <t>https://cdn-images-1.medium.com/max/1024/0*8yYmkmUX587UL9jr.gif</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/blog_feed.xlsx
+++ b/cyber_web/excels/blog_feed.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,257 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>07/12/2022</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DeFi and Cybersecurity: What Future Holds?</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/defi-and-cybersecurity-what-future-holds-fc55f7fb336a?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*hGD_bD9GBWq7vcLO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07/05/2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Disable Ad Tracking in iOS and Android — Reasons to do it now</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/disable-ad-tracking-in-ios-and-android-reasons-to-do-it-now-50afca9272bf?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*I9kx72nvtwe36fSj</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>06/14/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>How To Remove Your Personal Information From Google’s Search Results</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/how-to-remove-your-personal-information-from-googles-search-results-f6093b47812a?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*x2QMOap5oh3OgkeW</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>03/11/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Minimum Viable Secure Product (MVSP): A vendor-neutral security baseline</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/minimum-viable-secure-product-mvsp-a-vendor-neutral-security-baseline-fd79525f1ced?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/780/0*5c5YOITGtOJwazTr</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01/29/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Proof of Work (PoW) vs Proof of Stake (PoS)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://blog.cryptostars.is/proof-of-work-pow-vs-proof-of-stake-pos-3c0f2cb92502?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*DowFJSrSyWmXm3pn</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>01/18/2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Protect the APIs Using Leading Open-source Tools</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/protect-the-apis-using-leading-open-source-tools-cd0754efbdf?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*RHW-uTZb4Y8Kuy0x</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>01/14/2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bug Alert —Critical Vulnerability Alerting System</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/bug-alert-critical-vulnerability-alerting-system-7ce9d94c578?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/987/1*hQ1iRpbi_61zuB-EyZynOQ.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>01/11/2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Log4j — Searchable Software Repository</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/log4j-searchable-software-repository-125a1269dcea?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/945/1*bjsA9Y2JMFWtSC7G6HYH4w.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>01/11/2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Top 5 API Testing Methods to Secure Your Data</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/top-5-api-testing-methods-to-secure-your-data-5206c6c6f335?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*gt_EEhKve2CGUEeN</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>12/30/2021</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DuckDuckGo’s Email Protection Using @duck.com</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://vinothu.medium.com/duckduckgos-email-protection-using-duck-com-63da9b45ecc9?source=rss-25a06010c94f------2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://cdn-images-1.medium.com/max/1024/0*8yYmkmUX587UL9jr.gif</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/cyber_web/excels/blog_feed.xlsx
+++ b/cyber_web/excels/blog_feed.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,257 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/12/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DeFi and Cybersecurity: What Future Holds?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/defi-and-cybersecurity-what-future-holds-fc55f7fb336a?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/1024/0*hGD_bD9GBWq7vcLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/05/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Disable Ad Tracking in iOS and Android — Reasons to do it now</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/disable-ad-tracking-in-ios-and-android-reasons-to-do-it-now-50afca9272bf?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/1024/0*I9kx72nvtwe36fSj</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06/14/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>How To Remove Your Personal Information From Google’s Search Results</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/how-to-remove-your-personal-information-from-googles-search-results-f6093b47812a?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/1024/0*x2QMOap5oh3OgkeW</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03/11/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Minimum Viable Secure Product (MVSP): A vendor-neutral security baseline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/minimum-viable-secure-product-mvsp-a-vendor-neutral-security-baseline-fd79525f1ced?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/780/0*5c5YOITGtOJwazTr</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/29/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Proof of Work (PoW) vs Proof of Stake (PoS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://blog.cryptostars.is/proof-of-work-pow-vs-proof-of-stake-pos-3c0f2cb92502?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/1024/0*DowFJSrSyWmXm3pn</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/18/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Protect the APIs Using Leading Open-source Tools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/protect-the-apis-using-leading-open-source-tools-cd0754efbdf?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/1024/0*RHW-uTZb4Y8Kuy0x</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/14/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bug Alert —Critical Vulnerability Alerting System</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/bug-alert-critical-vulnerability-alerting-system-7ce9d94c578?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/987/1*hQ1iRpbi_61zuB-EyZynOQ.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/11/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Log4j — Searchable Software Repository</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/log4j-searchable-software-repository-125a1269dcea?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/945/1*bjsA9Y2JMFWtSC7G6HYH4w.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/11/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Top 5 API Testing Methods to Secure Your Data</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/top-5-api-testing-methods-to-secure-your-data-5206c6c6f335?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/1024/0*gt_EEhKve2CGUEeN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/30/2021</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DuckDuckGo’s Email Protection Using @duck.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://vinothu.medium.com/duckduckgos-email-protection-using-duck-com-63da9b45ecc9?source=rss-25a06010c94f------2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://cdn-images-1.medium.com/max/1024/0*8yYmkmUX587UL9jr.gif</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>